--- a/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material/Matriz de Confusão.xlsx
+++ b/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material/Matriz de Confusão.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano\ResNet\Tentativa 1\Com Tentativa 1 - Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13BED1E-91B6-4706-9435-4C3BE54CFA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A4F770-6010-480E-8F64-7194CDE7C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,19 +122,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -444,39 +444,39 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="7">
         <v>2</v>
@@ -539,13 +539,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -609,10 +609,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
@@ -620,15 +620,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
